--- a/backend/api.xlsx
+++ b/backend/api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WHUzero_cup2020\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD0B142-D4F5-449C-9DB3-9DC120EB6B61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24CE7FD-9AE4-49F0-AC2A-D6298D6972B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="114">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,10 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查看收藏接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1/star/list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,11 +442,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TODO：头像，评论点赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这四个错误会在err报gorm的错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看全部收藏接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看是否收藏接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/isstar/文章id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否star（0和1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TODO：头像，评论点赞，检查文章id越界</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -925,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,84 +975,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1050,28 +1062,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,15 +1198,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>10724</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>140805</xdr:rowOff>
+      <xdr:colOff>2442</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>29360</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>92114</xdr:rowOff>
+      <xdr:colOff>21078</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>83830</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1214,7 +1229,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11598094" y="4133022"/>
+          <a:off x="11589812" y="4306956"/>
           <a:ext cx="4905375" cy="6005896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1492,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1516,51 +1531,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="27"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="33"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1578,19 +1593,19 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
+      <c r="A4" s="29">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="23" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1599,47 +1614,47 @@
       <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="35" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="38" t="s">
         <v>39</v>
       </c>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="38"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="38"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1670,31 +1685,31 @@
       <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="38" t="s">
+      <c r="J7" s="14" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="34">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="3" t="s">
         <v>65</v>
       </c>
@@ -1706,13 +1721,13 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1722,13 +1737,13 @@
       <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="23"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1759,11 +1774,11 @@
       <c r="G11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="42"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
@@ -1787,267 +1802,296 @@
       <c r="G12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="34">
+      <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="35" t="s">
+      <c r="I14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="34">
-        <v>7</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="D15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>87</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="36"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="36"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="29">
+        <v>8</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="J18" s="24"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="24"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="34">
-        <v>8</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="D20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="F20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J20" s="44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J21" s="49"/>
+      <c r="E22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C24" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="C24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
+      <c r="C26" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="F30" s="25" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+      <c r="F30" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="24"/>
       <c r="F31" s="7" t="s">
         <v>0</v>
@@ -2063,10 +2107,10 @@
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="24"/>
       <c r="F32" s="7">
         <v>1</v>
@@ -2082,11 +2126,11 @@
       <c r="A33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
       <c r="F33" s="7">
         <v>2</v>
       </c>
@@ -2102,8 +2146,8 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="16" t="s">
-        <v>110</v>
+      <c r="E34" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="F34" s="5">
         <v>3</v>
@@ -2119,7 +2163,7 @@
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="20"/>
       <c r="F35" s="5">
         <v>4</v>
       </c>
@@ -2134,7 +2178,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="5">
         <v>5</v>
       </c>
@@ -2148,7 +2192,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="20"/>
       <c r="F37" s="5">
         <v>6</v>
       </c>
@@ -2304,11 +2348,11 @@
       </c>
     </row>
     <row r="51" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F51" s="30" t="s">
+      <c r="F51" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="29"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G32:H50">
@@ -2328,7 +2372,9 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="H11:J12"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="F13:G14"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="H4:I6"/>
@@ -2339,21 +2385,16 @@
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="F8:G10"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="F51:H51"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H11:J12"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="F13:G14"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="D15:D19"/>
@@ -2368,6 +2409,9 @@
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="F30:H30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
